--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/1_Adana_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/1_Adana_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF76068E-9122-484D-B7AE-84383D92D627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DCFF3FC-9335-485C-A0B4-F22A68B9871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="735" xr2:uid="{B76A9466-9094-484E-9626-49A3C26F439D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{F19A8959-ACA9-4368-8897-A7A8C8BE60C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -977,13 +977,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A3F05B82-8997-4997-8C22-0F295A566216}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{396CAE6E-4C22-40E9-A7FC-01B4D72883FC}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7A0FA246-ED37-4B89-A5C2-0BB108540DBD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8B3033A3-8865-4FED-A409-146DADDE5285}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1358AE01-9689-4385-84CD-025E289F4C3D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A5CF9B45-DBEC-44B9-8506-DB55CD90B66F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{930E580C-6D79-4AE0-B1BD-52F35638254C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B0D40793-B2EF-46CA-A21C-9AF8FFD9406D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0FACCC6F-B190-4EC1-AC53-D1ED2070A2CC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{70F81998-4323-4E6F-98F5-F9BA8B4A9760}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{45C26F40-E794-474F-80D7-468B9D952E5B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7F62011A-F268-412C-8926-93B98A529A72}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5A1B4AF0-FE2F-4008-9EA7-C583BD98C59E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4E7240F4-5C18-4F1E-9BB5-5733E400120D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330D5585-C7E4-42A7-A149-345EF027B08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390CC66F-67BD-4AA0-BC0D-875CBFFF2A89}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2679,17 +2679,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3245AB3D-828F-4110-BA45-8796F85947C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5AC9523-AEE8-4D5E-ADF5-E9097109CDB6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD2E9A38-E4F0-4CCF-8833-527F55B7A6D2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5BB75D5-DA67-4A83-B18B-289203DAC19F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{72C7B305-4415-45C1-A348-9880E928B944}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50FBB11E-B56A-4CBF-B7E5-0A7D542425C8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{390B4A36-08FF-4D10-B91A-786D391BB67D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB8C1914-77FF-4706-BE01-B29047D3BA93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{86738616-F380-4DA3-BEFB-D899C7314706}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{947B5FE2-2546-4A31-914D-B3DF8E5BFC9A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2E715DB-89C5-458C-9576-A56D00A0D00A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C4B4E96-432E-4C6C-832E-FF69F14BC837}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C5FF8EF-0AC4-4C9C-B704-0176DD012D95}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5B5E80A-A0F3-4ED3-B811-4B63C7DE56CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A97727FB-F014-4ED4-A7E8-68ADFBF1E322}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36FD2751-7FA2-4AA2-8304-B1646D75B224}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{365F7410-FFF2-441F-818B-E9A083BEA1A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8274DDB-CA37-43DB-813F-5045AFC385A8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9545DFFF-3960-42BC-A360-2D0755E03F15}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2AC963C6-5C09-4E6F-8511-ECE466CA4B34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1B81F654-7AD8-4C42-BDAD-81C7EDE1F0ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{687C6896-B1B8-4448-B87E-6F22B8D6B402}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2702,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B76CE46-6AD4-4F00-A7B6-E9910066FC65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8EA8D1-485F-42BA-A420-50320926633E}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F106"/>
   <sheetViews>
@@ -4020,17 +4020,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E65094E6-54E4-45DA-8B51-A113494A9838}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88E194A8-F92A-4A5D-BDB1-61D60C08FF8F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92B356A7-F13C-4E8E-B5C9-E2638931AFA5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F53251D7-EE40-42EA-B9EA-4EA8DCD3905A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEFF57B1-D151-49BA-BA38-69258F9844D2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB92457F-D806-472F-98F1-D3A7CD0EFF09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDCD8489-3508-446B-BBA5-480BA4208A93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{929B94B6-61A0-488D-984A-ECE91AD8B222}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{400FE818-BC0B-4C36-B4E5-A45207D41BD6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EE1812E9-E60A-4744-A3E4-47F94B8D52AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0508207-7D15-4066-90E5-BFC264906E65}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A642648D-2242-4E75-9968-B55E9D6485A0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A37194A5-0AF9-49CF-BDD9-6DA18C81FB27}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{027E3023-2232-4E42-910F-84B1EDFC28E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7C9D78AE-0E68-4D75-A894-1AD0EC775252}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7A08743-362E-49BD-B5CA-119C46A49A44}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6CF9DAF-4E7E-4533-AD87-8400F4C72234}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0922EF8C-4DBF-4202-942F-8433E748891E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19CB1C14-B0FC-487F-9535-AB7CC13A0285}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BC659C0B-4F8A-41FD-A102-8E39D539E558}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{962DA3C0-7827-4889-9BA3-50833205D035}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24A2CD34-157E-461E-8A7A-748DDB4CCCEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4043,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517EEB16-DCC6-47B2-B359-C7C3629C0397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832F52F0-38EE-47BB-ABD8-0F03866007F2}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F106"/>
   <sheetViews>
@@ -5349,17 +5349,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D987EBFF-BE1A-473E-A4F8-1F02263648F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB1975D0-FE89-44B7-9CA5-408D706BB2D3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF264A64-DBAF-45B8-80FA-FFFB46EC5773}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7EE8476-D88A-4E7F-9C6D-E998244748D3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5377BE4E-893A-49B7-ADDA-AC62337D4C19}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{604377B0-1E3D-4159-9F86-600A886139E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{023731E6-BBDD-4B00-8703-5E41ACC0EDB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E519F51B-0B46-4E2A-A475-960AE251D31A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6D688B87-319B-4E19-AE02-072F2439B5CF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2D426DD0-AC78-460A-AB30-2328573CCB53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CF52F57-896F-48D7-BE54-1FFE2D290591}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C8F3242-9ECC-45B2-AECB-94D61D30290E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B8F0679-180F-4237-805F-DED8FB9659AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8EC4157B-52D2-48BA-A54F-9B95DC19BE8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2DB25586-7C99-4F22-9FDB-90A9C790F7F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A984C74-A928-427B-BDB1-7341328B9680}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3695B935-31FA-408F-86EE-CDC187AAE98A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D868B509-4F27-4A0A-9A97-2492A7F73E31}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D74B37C3-F014-47EC-866F-96A571E8436A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F3DF9CFC-45CA-44BA-B3DF-F1DCDDEFA421}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6473DFF4-C37F-4487-9743-8DB1429C0F60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DBAA422-74D9-44FE-A9E8-AD2499E96C0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5372,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022675A5-8E5E-4434-A919-D9738569C320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE469E3-8E27-4610-BC86-8081BB010056}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F106"/>
   <sheetViews>
@@ -6678,17 +6678,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89C90E49-529B-4678-8A10-9E5BB1878EF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{562D29D5-AB15-403A-8062-612FA163C370}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC697BE0-8640-41C8-B0E9-300F200C708A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3051AFE4-8554-41BA-9892-46F25DA8A4A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3175B498-EFF4-4DA8-9544-ECC278F42977}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBAB51A4-7D0F-49A2-B148-D1788D474A06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D4B6E0A-1FD2-4EEF-8F93-5865E3FB3A4A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08A55ACA-BD61-48F3-9D05-A5DE7BC8C138}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C6DA1F7A-0F25-44BF-8B67-4AFEDEE3DF08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{09F07C51-E1AD-4A84-A09A-8FFE031AC4E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9616FE7A-66BD-40EA-A6AB-E04B22D294AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C60DABA-C4BB-4593-B223-353D5427AB51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06EA5A0E-881C-48A4-8858-A0039BE45575}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{070420AC-6494-4D36-BCCB-D64CD4D8A6C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6899B265-7997-4D39-ACF8-46E0459620EF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0174D995-E012-4703-9F34-D152FDE9DD68}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80186D2F-8EC7-49AA-B1C5-5BEBCFC3F75F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F07AE44E-3F24-44BF-8EAA-DE268C2727DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D333D43-BDE9-4ED4-9624-921F13B70EB2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{24846AE1-B263-41C7-BC6D-3C8DD98F8324}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A8DF8112-E6F4-4A87-B71C-4AD69BB99ABF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{149EEC1A-FC5A-4561-938F-AB12B61EB3B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6701,7 +6701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A962F2-259A-483E-9BB0-8EAF7CB08726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14320546-6AEC-4097-AF94-F410010D7F80}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8022,17 +8022,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{186BE548-951B-49ED-8D1E-7BFD575FD634}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84AC8D07-0306-4697-AA59-7B77F02FC0A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F609F421-575E-493F-9080-BCC66398E21B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A4CAF99-B695-4843-8580-1348D0715DC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F8B5D74-6BD5-411A-9288-B6333B9EC9AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C48DF5F-749E-4E8E-996F-C16FC7D5A26C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D96D4DA4-AFED-4A74-B844-96A8745EA923}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C55183CE-9D03-4EFD-8A7D-34C8E8AA3403}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DF5C9C9E-15E0-413C-8EE5-468FA7F45E2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9625F259-ABB4-4B92-BA3C-042328C88B2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F51F9FF-D1F4-412D-AC74-22F639BCD7EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{651EBF98-1661-44C3-BF2B-3A70FA9B28B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5BDAAA6-3A76-4130-8095-EAF66777A0F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01603D3E-D331-4204-BCBF-D02817A44F08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{00AE3DB8-7D4B-4778-B4EF-CA3AD47016F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B74D3966-35B2-4964-8A77-54747FE76B58}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1DB1813-29AB-4A95-822B-84D0A6334484}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A058309-0C43-40BB-A8BC-858CCE492583}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B50D2DBE-C1E6-4884-AD4F-F93428AACC46}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0054724-91AA-46B4-AD25-325EB27D2A93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{98392BE1-8946-420B-94C7-F28437F3B5B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16A97594-DD3B-4637-B7BF-2E403DBAAB6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8045,7 +8045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4795A4-648B-4EA7-AFD7-47C26C02F163}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7655083D-F8F1-46A2-95AD-42D886673D15}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9362,17 +9362,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E377F77B-7F4A-4916-9E41-98C590B71685}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{993C69FE-63C8-4E42-9DE3-8A5897B78941}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95F571C3-9DFC-42C9-ACD7-19A7E7D6DCB8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6DBB8261-3DED-4200-BA8E-1EB70534D96C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE6BB6AE-EE7B-450A-A43B-C011542BA227}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75E6FB6E-4440-4CFC-96F1-D7BE9420AEF3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5EC8A36-AC0F-42A6-A1F7-775653AAE132}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D43217D-BEDF-4506-AAB7-011136467A52}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9D094965-B4F5-4130-90A4-87EF9C5150EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2B7F8081-37BC-4C29-99F5-47E203450702}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E86B656-FC3B-4591-B43E-A9799BFE9A2A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF82E825-C587-4685-A2AA-B782074BD2D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ECF80534-7BED-47C6-8899-9F22F20E4F58}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8E8056C-85E9-4688-9ACD-5CB1E897AC15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88635862-8743-49B9-A31C-469DF9161429}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B33D48F9-8509-440B-93EF-20066D3A3368}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63D803E3-E603-4271-92CD-4194A9E70441}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6989A8C-95BD-464E-9012-F24A80A4A52D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{049E6BF9-8F39-44E7-9366-C1064F507FA8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58A9CE62-053E-4A61-93EB-A82462C025DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EBE345B2-C339-40E3-8C18-63588568C91D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2B54C9E-37B3-44B7-8BAF-A52784B2CF43}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9385,7 +9385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3ECB2B-3BC7-4FB3-9967-D3FA6FFF6550}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF254E57-A5CC-40F1-B5C9-863BC3F99BAC}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10702,17 +10702,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43EBADDA-2119-4DCA-8614-3B48E8E1015B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{342FC6AA-D7D3-4FEF-AE3B-A662B66A8BD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0A0C48E-5CE7-47BF-A226-648810A2AC7C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E1F5804-7DDC-43EA-8C87-15DA28467548}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6341CE85-E5D5-41A4-93AF-8E986FF4CAB7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67D4FBDD-992F-4C6A-B04F-D934DF3515B0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21658519-FFBD-49A2-888D-EE46E8469EEF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB399840-9EE5-499B-9B9F-8A0FC7BDBE37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{145C933C-8CA2-4BC2-9B63-C84A2FB58C54}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4F1CB287-9D70-412E-9B51-5025B36ECDF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE2BC31F-7194-4F65-8463-94E9A9F6485F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93975E1B-D0F0-47E8-A0EE-5F160AE0E8F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9013CC4-B439-4491-8554-0DA2EF767DA5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9D53FF4-64AD-4D84-AFC4-8C97CC81C74C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B45D354F-EED7-4A0F-8B31-31B584B992BB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76F4AC87-243C-4432-A01D-CFF7680CC98A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6410CC6C-E447-4A4A-A067-715F4C21C0A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36D30ECB-25E5-4C6E-9558-1FD91F0B9963}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45E9C55C-EB74-47A4-AD57-A39275BAED2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{89E13F9B-18DD-4DE3-9FCC-FC7FFFA62945}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{834AF897-7463-499C-81DA-328A2A02A676}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4370C3EE-F6DB-4E4E-90E8-27A1D9C79285}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10725,7 +10725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD506CA-D09D-4D44-A55A-735FB06D4A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0221C7D-02BC-4EC6-856F-5B1409D1C109}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12042,17 +12042,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C89F043-9DC8-4995-9F4B-7E3B0A901BEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{117646A0-0A8E-402D-B8B1-19CAE7EDBD6B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB61F112-3306-4D3A-9478-9C49AF3FCC98}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BAAC5F35-DF9E-4466-ACFA-098189AD39B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{803BDE2F-CCD3-4191-AF2A-BFCD042CBE7E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EBD4D2DF-7CB2-4191-AE69-0EED63628AA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3284A020-9A8C-47D4-AE00-0A7E51520D17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4131C3F2-2DFE-45EC-B381-FED1C3F4CAAE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{056BBA9E-A7F2-45ED-BD47-5A3A46C88721}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4266D9FF-E378-437B-9686-7A0F814C94FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01B43BF4-7095-4574-B641-B47D7B3639D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3639CEC6-44B0-4327-A65E-D13238211ACA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{707F85A4-F919-42C6-866B-D470BA447AE0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC6C8DB3-121C-4AD3-9E03-C1BE9D22CE25}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9986DB6-F93E-40DC-9332-55FDBF08A245}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FECF88E9-C3DD-4B26-B9CD-33B5DAF52C87}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E72955E-DFDB-4BBA-A0A8-AD584A8BFB8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56A0102B-3304-456E-8BC9-3114B82471B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B175D36A-618B-4870-B01D-8A23EDB46A2E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5C9AE2E7-F1BA-4A99-9BE7-DF54D287AD92}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B05B7891-BF6C-4A36-8CCD-EB1ACF3E45D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10BAF2C3-12E3-48E8-8C98-D288CC69A0D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12065,7 +12065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497ED3E-486E-4104-BF01-7F3D5FD8C038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD9C176-8ED4-48FD-8AEC-8F2DB067D7EF}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13382,17 +13382,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B2ECC36-2EF3-4C29-9EE0-1CD6297412BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B7072B0-2D38-4F96-B5DB-0ADE3704F516}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{807C6C97-A2C0-46D3-A3F8-F7F0B290CA9B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B2121FAB-30C1-4781-8E70-5FCE1CBB799C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24A6958C-44A2-45DA-9F39-F4F1107CAFA4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A62F4F65-CEED-45E1-A76B-49E0CBFB2DA7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9432083-5593-4F88-9FEC-135779B7B667}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A4125F0-AE1C-4657-8F19-A09B1AE42628}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{90DF8BDC-F7AD-49CD-BBAC-87AD66708278}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7839C3B6-8BE5-4901-AE3B-7E86CDD2A512}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11FEF305-DDB8-4813-8E8D-37DA099C1FF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DF3AAB5-8089-4461-AA3C-98749C7A560B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BA87B85-6E6B-48DC-A95B-0942A10FABC5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6CA10196-9702-4826-8509-28BF231DFE88}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E7122D4-0A52-4013-8F7A-5285207598DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9279764F-B4D4-4FCE-84AD-1D230CC1D0D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C3E75CB-3825-45EA-9EBD-0839B65DF4D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{147A658B-F422-4662-8EF0-EE1172C8ACE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB238B20-D3F2-49FC-9FE5-C6E9AE35CB0F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8BF6E27F-08DB-46C0-A172-6EC27AF85871}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{610907CD-9678-4A7B-AAB8-571B93B2E4DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AB32040-EAAD-4589-835D-0F27D6ADD09F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13405,7 +13405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1BF1D1-9067-4BD4-B58E-C72A390D1D7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A919A529-DBBD-4BB4-B5CD-CC939C41FE6C}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14722,17 +14722,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB6DE013-CD46-4924-9FC3-6FE07041C05B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA8474AD-E114-42ED-B75B-4C854ABD20F5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DCC67A3-2740-477C-96CB-F65069FB54D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D0D083C1-68E8-48C6-A0AB-9639C7C3D938}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CEE6C43-FC58-42D0-A008-D7EEA8E11EFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA78F62B-80DA-4F19-8AF8-B8FF37972C7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{664A5549-CCAD-45E1-952B-B6B6CFEF1FA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62E10AE2-74B2-4CE7-861D-07059F983A99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C9ABA656-D639-4938-BD4C-E55528EEE863}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7221A36B-5CD3-4FDD-A65A-FE3F9DAA4D8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{132BB23E-B4E5-4092-8F05-F3DABD92D3B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{34E2A6DE-616C-4760-9F16-56E31A4BA2BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{968250F5-B643-4F3E-A661-3635C228156A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C81253D0-312F-41A0-A3CD-496848782418}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{82CC6B92-019D-4914-9BE1-9C2BB6A96AB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4E96EC0-0653-4458-8A19-C9A66DA8ABC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1E513B4-CAAB-4E68-9331-49CFC8B875C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5836572F-A56F-4DF0-AC82-F4E88685ABCE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AED90C00-81B2-48C0-BA8D-94285CB4B701}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2C14D5D9-3A7A-4EA8-B980-10BEB57D241A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{70091656-3F6C-42D3-98C6-885C5AC4F682}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B76BEF0F-C3B5-4D87-A3ED-007AF542E006}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14745,7 +14745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAF8F9C-1D33-4CB3-8E2F-D604997DEA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFABE36-A93E-4471-AD33-887348B35C8C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F106"/>
   <sheetViews>
@@ -16063,17 +16063,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD60A656-9C58-4218-81CD-354BFF1E9A19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1812F70E-5AD3-408B-BF8F-B9AE038879F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4EDD4E76-C0D2-4DE2-A2FA-2CE0A2B49A92}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8F59EFE3-CC84-4FFE-87DE-78A30913F8BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D67501EF-EEB1-4052-8DDD-64BD3A39188E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{837CF4C1-6DF1-45E8-8CAA-CB90630A2E3E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44F77DD8-534C-48FC-B8CD-78D5688E0920}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0FE3C71-7860-41FF-B029-748A32CC138A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7D65918E-653E-469E-955F-203C4DF9E817}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9664817B-CB6B-4596-8EC8-B205717E4DA6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B52506B6-DDB1-404C-AF04-4B99C0114134}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C29D4207-C4DD-48B0-87F8-D22A0EDB23C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A40C850C-E83C-4C0F-A557-F199B7EDB450}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B4D4DA6D-E7DB-4B48-8F9C-A04CB00FECDB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58EDA36B-E2C5-4816-B520-94AB643E2FB0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2385C8E3-B845-4FD8-8F76-E9A3CE590447}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E340BF3-569A-4F9F-9408-085B6BAE9BB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A89D6EC-2527-491A-82FB-4F14ABB505AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53E01B1D-D56A-48A6-8ED0-3FFAA9DCBD81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9D1B3A62-A816-4ACE-8298-6C6B22F04B72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{214D5ABA-2EDA-4906-BF67-C45C2F131191}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82771E35-2FD2-4129-B225-25D26ADEF132}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16086,7 +16086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573C7BC-D374-4C22-9D3B-A91A2E0EA897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25913409-8835-4935-8033-AA45EF046A8C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F106"/>
   <sheetViews>
@@ -17404,17 +17404,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8C396DD-AA53-4BCB-B891-0D3A03493DB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08CD7C98-A5FC-4CDF-B9E0-419139F71DC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33616DE7-42CC-4DBE-9173-1A2178A069DE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1360CABE-3F35-49E7-99A5-3F689CFC5681}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E132205D-54E0-4BF3-95FC-28D9864D5A5B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A06D6C68-7C7E-47C3-B137-970C47BE3D1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CFED20E-40F8-40DB-B68A-4E457B1C3538}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6C46699-5213-43D3-ADCF-B61398CE0489}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72DEF65A-1BAA-45CF-8B35-E0040D7A115A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3663DFFE-05A3-4B7E-A17A-A959E0CF6CD7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C241DC97-CCEF-4848-ACBE-C4BE94C8667B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{578AC483-7D91-4388-8F85-1525C6E67764}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA9A1223-2B7B-427D-8C21-51552DCEEE17}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{664DFE3C-1644-4044-B3FF-6D3D3232CE5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72A720C3-72DC-49A9-AD37-FB42E4773864}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35657671-9B67-4B84-B844-BFD59B06C0B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9CFF5952-358A-411C-8115-F26138CC2778}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDBD4E90-6047-4279-9431-EF2531F9417F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AC9DB9F-004D-4AC7-9A9C-9FC50D0B1D89}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8048F974-C0C6-4723-AA10-0DD517BD339D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{287C1199-5636-4CB6-8D07-304C59F427AF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{359336DA-0644-48E6-B853-5CAE3185CC85}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
